--- a/biology/Botanique/Panicaut_des_champs/Panicaut_des_champs.xlsx
+++ b/biology/Botanique/Panicaut_des_champs/Panicaut_des_champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eryngium campestre
 Le panicaut champêtre (Eryngium campestre), Chardon champêtre, érynge ou éryngion blanc, est une espèce de plante herbacée dicotylédone vivace de la famille des Apiaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le panicaut commun (champêtre) porte de nombreux noms vernaculaires : chardon-Roland, chardon-roulant, éryngion blanc, herbe aux cent têtes, chardon d'âne…
 Il s'agit d'une plante psammophyte épineuse vivace, très répandue en Europe occidentale et centrale, en Afrique du Nord, au Moyen-Orient et dans le Caucase. Elle affectionne les champs incultes, les bords des chemins, les endroits assez  secs, plutôt en plaine.
@@ -547,7 +561,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : capitule
@@ -556,7 +572,7 @@
 Période de floraison : juillet à septembre
 Graine
 Type de fruit : akène
-Mode de dissémination : épizoochore, anémogéochore[1]
+Mode de dissémination : épizoochore, anémogéochore
 Habitat et répartition
 Habitat type : pelouses basophiles médioeuropéennes
 Aire de répartition : eurasiatique
@@ -589,12 +605,14 @@
           <t>L'éryngion blanc dans l'Antiquité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éryngion blanc était appelé centum capita par les Romains, ce qui signifie « herbe aux cent-têtes ».
 Les Grecs en mangeaient la tige et la racine, cuites ou crues. On lui prêtait des vertus prodigieuses. On considérait que la racine avait la figure des parties naturelles de l'homme ou de la femme. On croyait que, si un homme trouvait celle qui représente les parties mâles, elle avait le pouvoir de le faire aimer, de même pour la femme.  On prête à la plante la passion de Sappho pour Phaon de Lesbos.
 Quant à l'usage médical, on utilisait cette plante pour les flatuosités, les tranchées, les maladies du cœur, de l'estomac, du foie, des hypocondres, les maux de reins, la strangurie, l'opisthotonos, les douleurs lombaires, l'hydropisie, l'épilepsie, pour la suppression ou l'excès du flux menstruel, ainsi que toutes les affections du système reproducteur féminin.  On la prenait dans de l'eau miellée et, pour la rate, dans de l'oxycrat.  On croyait qu'avec du miel, l'éryngion blanc faisait sortir les corps étrangers et qu'avec de l'axonge salée et du cérat, il guérissait les scrofules, les parotides, les tumeurs, les dénudations des os et les fractures.  On croyait aussi que, pris avant de boire, l'éryngion blanc empêchait l'ivresse.
-Quelques auteurs latins ont recommandé de cueillir l'éryngion blanc au solstice d'été et de l'appliquer avec de l'eau de pluie, dans toutes les affections du cou. On a aussi prétendu qu'il guérissait les taies des yeux[2].
+Quelques auteurs latins ont recommandé de cueillir l'éryngion blanc au solstice d'été et de l'appliquer avec de l'eau de pluie, dans toutes les affections du cou. On a aussi prétendu qu'il guérissait les taies des yeux.
 </t>
         </is>
       </c>
